--- a/biology/Zoologie/Engoulevent_de_Prigogine/Engoulevent_de_Prigogine.xlsx
+++ b/biology/Zoologie/Engoulevent_de_Prigogine/Engoulevent_de_Prigogine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caprimulgus prigoginei
 L'Engoulevent de Prigogine (Caprimulgus prigoginei) est une espèce d'oiseaux de la famille des Caprimulgidae, connu d'un unique spécimen, une femelle, trouvée au Zaïre (actuellement la République démocratique du Congo) en 1955. Depuis, aucune observation n'a été enregistrée.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est décrite à partir d'un spécimen femelle et ressemble vaguement à la femelle de l'espèce Engoulevent musicien (Caprimulgus pectoralis).
 On ne sait pas actuellement comment identifier cette espèce mais des enregistrements sonores d'engoulevents non identifiés ont été provisoirement attribués à cette espèce.
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en République Démocratique du Congo, dans le massif d'Itombwe, en République du Congo, au sud-est du Cameroun et au nord-est du Gabon[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en République Démocratique du Congo, dans le massif d'Itombwe, en République du Congo, au sud-est du Cameroun et au nord-est du Gabon.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans les forêts à voûte ouverte de type semi-sempervirente à basse altitude ou de type sempervirente dans les montagnes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans les forêts à voûte ouverte de type semi-sempervirente à basse altitude ou de type sempervirente dans les montagnes.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Population et menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après l'UICN, le déboisement pour l'agriculture à petite échelle est une menace sérieuse dans le massif d'Itombwe, où une brûlure du maïs depuis le début des années 1990 a réduit les rendements et contraint les agriculteurs à défricher la forêt pour de nouvelles exploitations (Omari et al. 1999).
 Le défrichement de la forêt pour le pâturage du bétail, en particulier à des altitudes plus élevées, est également une menace (Omari et al. 1999).
